--- a/Controller/Ticket_Details.xlsx
+++ b/Controller/Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>ticketID</t>
   </si>
@@ -50,136 +50,85 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>close</t>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>2023-12-03 16:52:00</t>
+  </si>
+  <si>
+    <t>2023-12-03 16:52:40</t>
+  </si>
+  <si>
+    <t>QWRTYUH</t>
+  </si>
+  <si>
+    <t>12345678okjhgfdsazxcvbnmkl;oiuyt</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>2023-11-28 19:17:00</t>
-  </si>
-  <si>
-    <t>2023-12-07 15:44:00</t>
+    <t>2023-12-07 14:56:00</t>
+  </si>
+  <si>
+    <t>2023-12-07 14:57:02</t>
   </si>
   <si>
     <t>Nothing</t>
   </si>
   <si>
-    <t>sdfghjkjhgfc</t>
-  </si>
-  <si>
-    <t>asdfg</t>
+    <t>asdfghjkjhgfds</t>
+  </si>
+  <si>
+    <t>2023-12-07 16:42:00</t>
+  </si>
+  <si>
+    <t>2023-12-07 16:43:00</t>
+  </si>
+  <si>
+    <t>123456yujnbvcxsasdfghb</t>
+  </si>
+  <si>
+    <t>2023-12-10 17:16:00</t>
+  </si>
+  <si>
+    <t>2023-12-10 17:16:33</t>
+  </si>
+  <si>
+    <t>Online Banking</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:06:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:06:38</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:36:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:36:29</t>
+  </si>
+  <si>
+    <t>asdfghjkl;</t>
   </si>
   <si>
     <t>Close</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>2023-12-05 15:28:00</t>
-  </si>
-  <si>
-    <t>2023-12-13 12:45:00</t>
-  </si>
-  <si>
-    <t>aasdfgbvc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>2023-11-29 17:07:00</t>
-  </si>
-  <si>
-    <t>2023-12-07 15:45:00</t>
-  </si>
-  <si>
-    <t>asdcfvbnm,.,mnbvc</t>
-  </si>
-  <si>
-    <t>asdfghnjk,mnbv</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>2023-11-29 17:12:00</t>
-  </si>
-  <si>
-    <t>2023-11-29 17:12:28</t>
-  </si>
-  <si>
-    <t>sdfghjkllvcx</t>
-  </si>
-  <si>
-    <t>2023-11-29 17:12:44</t>
-  </si>
-  <si>
-    <t>asdfghjkoi87654321</t>
-  </si>
-  <si>
-    <t>2023-12-03 16:52:00</t>
-  </si>
-  <si>
-    <t>2023-12-03 16:52:40</t>
-  </si>
-  <si>
-    <t>QWRTYUH</t>
-  </si>
-  <si>
-    <t>12345678okjhgfdsazxcvbnmkl;oiuyt</t>
-  </si>
-  <si>
-    <t>2023-12-07 14:56:00</t>
-  </si>
-  <si>
-    <t>2023-12-07 14:57:02</t>
-  </si>
-  <si>
-    <t>asdfghjkjhgfds</t>
-  </si>
-  <si>
-    <t>2023-12-07 16:42:00</t>
-  </si>
-  <si>
-    <t>2023-12-07 16:43:00</t>
-  </si>
-  <si>
-    <t>123456yujnbvcxsasdfghb</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:00</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:33</t>
-  </si>
-  <si>
-    <t>Online Banking</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:38</t>
-  </si>
-  <si>
-    <t>asdfghjkl</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:36:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:36:29</t>
-  </si>
-  <si>
-    <t>asdfghjkl;</t>
-  </si>
-  <si>
     <t>2023-12-17 16:54:00</t>
   </si>
   <si>
-    <t>2023-12-17 16:54:43</t>
+    <t>2023-12-18 14:27:00</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>2023-12-17 16:55:00</t>
@@ -189,6 +138,30 @@
   </si>
   <si>
     <t>asdrtfyuio</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:29</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:29</t>
+  </si>
+  <si>
+    <t>2023-12-19 11:45:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 11:45:22</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -528,7 +501,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +546,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -594,39 +567,36 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -635,126 +605,117 @@
         <v>301</v>
       </c>
       <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J4">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>303</v>
+      </c>
+      <c r="J5">
         <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>302</v>
-      </c>
-      <c r="J5">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -766,56 +727,59 @@
         <v>33</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="J7">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>308</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
         <v>37</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>303</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -830,24 +794,24 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -856,30 +820,30 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="J10">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -888,147 +852,51 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>303</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
       </c>
       <c r="H12">
         <v>7</v>
       </c>
       <c r="I12">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>308</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>308</v>
-      </c>
-      <c r="J14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>305</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Controller/Ticket_Details.xlsx
+++ b/Controller/Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>ticketID</t>
   </si>
@@ -50,22 +50,7 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>2023-12-03 16:52:00</t>
-  </si>
-  <si>
-    <t>2023-12-03 16:52:40</t>
-  </si>
-  <si>
-    <t>QWRTYUH</t>
-  </si>
-  <si>
-    <t>12345678okjhgfdsazxcvbnmkl;oiuyt</t>
+    <t>Close</t>
   </si>
   <si>
     <t>high</t>
@@ -74,7 +59,7 @@
     <t>2023-12-07 14:56:00</t>
   </si>
   <si>
-    <t>2023-12-07 14:57:02</t>
+    <t>2023-12-19 13:51:00</t>
   </si>
   <si>
     <t>Nothing</t>
@@ -83,85 +68,19 @@
     <t>asdfghjkjhgfds</t>
   </si>
   <si>
-    <t>2023-12-07 16:42:00</t>
-  </si>
-  <si>
-    <t>2023-12-07 16:43:00</t>
-  </si>
-  <si>
-    <t>123456yujnbvcxsasdfghb</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:00</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:33</t>
-  </si>
-  <si>
-    <t>Online Banking</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:38</t>
+    <t>xcvnmnbvc</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:54:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:27:00</t>
   </si>
   <si>
     <t>asdfghjkl</t>
   </si>
   <si>
-    <t>2023-12-17 16:36:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:36:29</t>
-  </si>
-  <si>
-    <t>asdfghjkl;</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:54:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:27:00</t>
-  </si>
-  <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:36</t>
-  </si>
-  <si>
-    <t>asdrtfyuio</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:25:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:25:29</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:26:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:26:29</t>
-  </si>
-  <si>
-    <t>2023-12-19 11:45:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 11:45:22</t>
-  </si>
-  <si>
-    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -501,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +465,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -567,24 +486,27 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -593,310 +515,22 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>305</v>
-      </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>303</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>309</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>308</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>308</v>
-      </c>
-      <c r="J8">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>305</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>324</v>
-      </c>
-      <c r="J10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>303</v>
-      </c>
-      <c r="J11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>324</v>
-      </c>
-      <c r="J12">
-        <v>48</v>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Controller/Ticket_Details.xlsx
+++ b/Controller/Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>ticketID</t>
   </si>
@@ -53,22 +53,91 @@
     <t>Close</t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>2023-11-28 19:17:00</t>
+  </si>
+  <si>
+    <t>2023-12-05 15:28:00</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>sdfghjkjhgfc</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>2023-12-13 12:45:00</t>
+  </si>
+  <si>
+    <t>aasdfgbvc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>2023-11-29 17:07:00</t>
+  </si>
+  <si>
+    <t>2023-12-07 15:45:00</t>
+  </si>
+  <si>
+    <t>asdcfvbnm,.,mnbvc</t>
+  </si>
+  <si>
+    <t>asdfghnjk,mnbv</t>
+  </si>
+  <si>
+    <t>2023-11-29 17:12:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 11:45:00</t>
+  </si>
+  <si>
+    <t>sdfghjkllvcx</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
-    <t>2023-12-07 14:56:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 13:51:00</t>
-  </si>
-  <si>
-    <t>Nothing</t>
-  </si>
-  <si>
-    <t>asdfghjkjhgfds</t>
-  </si>
-  <si>
-    <t>xcvnmnbvc</t>
+    <t>2023-12-10 17:16:00</t>
+  </si>
+  <si>
+    <t>2023-12-10 17:16:33</t>
+  </si>
+  <si>
+    <t>Online Banking</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:06:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:06:38</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:36:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:36:29</t>
+  </si>
+  <si>
+    <t>QWRTYUH</t>
+  </si>
+  <si>
+    <t>asdfghjkl;</t>
   </si>
   <si>
     <t>2023-12-17 16:54:00</t>
@@ -77,10 +146,49 @@
     <t>2023-12-18 14:27:00</t>
   </si>
   <si>
-    <t>asdfghjkl</t>
-  </si>
-  <si>
-    <t>Done</t>
+    <t>2023-12-17 16:55:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:55:36</t>
+  </si>
+  <si>
+    <t>asdrtfyuio</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:29</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:29</t>
+  </si>
+  <si>
+    <t>2023-12-19 11:45:22</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:57</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:52:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:52:37</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhgfdewqw34r567890</t>
   </si>
 </sst>
 </file>
@@ -420,7 +528,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +573,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -492,7 +600,7 @@
         <v>301</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -500,7 +608,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -509,28 +617,421 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
+        <v>301</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>302</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>303</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>303</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>325</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>308</v>
       </c>
-      <c r="J3">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>308</v>
+      </c>
+      <c r="J9">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>305</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>324</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>303</v>
+      </c>
+      <c r="J12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>324</v>
+      </c>
+      <c r="J13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>301</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>301</v>
+      </c>
+      <c r="J15">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Controller/Ticket_Details.xlsx
+++ b/Controller/Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>ticketID</t>
   </si>
@@ -50,136 +50,100 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>2023-12-10 17:16:00</t>
+  </si>
+  <si>
+    <t>2023-12-10 17:16:33</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Online Banking</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:06:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:06:38</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:36:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:36:29</t>
+  </si>
+  <si>
+    <t>QWRTYUH</t>
+  </si>
+  <si>
+    <t>asdfghjkl;</t>
+  </si>
+  <si>
     <t>Close</t>
   </si>
   <si>
+    <t>2023-12-17 16:54:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:27:00</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:55:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:55:36</t>
+  </si>
+  <si>
+    <t>asdrtfyuio</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:29</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:29</t>
+  </si>
+  <si>
+    <t>2023-12-19 11:45:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 11:45:22</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:57</t>
+  </si>
+  <si>
     <t>medium</t>
-  </si>
-  <si>
-    <t>2023-11-28 19:17:00</t>
-  </si>
-  <si>
-    <t>2023-12-05 15:28:00</t>
-  </si>
-  <si>
-    <t>Nothing</t>
-  </si>
-  <si>
-    <t>sdfghjkjhgfc</t>
-  </si>
-  <si>
-    <t>asdfg</t>
-  </si>
-  <si>
-    <t>2023-12-13 12:45:00</t>
-  </si>
-  <si>
-    <t>aasdfgbvc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>2023-11-29 17:07:00</t>
-  </si>
-  <si>
-    <t>2023-12-07 15:45:00</t>
-  </si>
-  <si>
-    <t>asdcfvbnm,.,mnbvc</t>
-  </si>
-  <si>
-    <t>asdfghnjk,mnbv</t>
-  </si>
-  <si>
-    <t>2023-11-29 17:12:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 11:45:00</t>
-  </si>
-  <si>
-    <t>sdfghjkllvcx</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:00</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:33</t>
-  </si>
-  <si>
-    <t>Online Banking</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:38</t>
-  </si>
-  <si>
-    <t>asdfghjkl</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:36:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:36:29</t>
-  </si>
-  <si>
-    <t>QWRTYUH</t>
-  </si>
-  <si>
-    <t>asdfghjkl;</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:54:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:27:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:36</t>
-  </si>
-  <si>
-    <t>asdrtfyuio</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:25:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:25:29</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:26:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:26:29</t>
-  </si>
-  <si>
-    <t>2023-12-19 11:45:22</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:48:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:48:57</t>
   </si>
   <si>
     <t>2023-12-19 15:52:00</t>
@@ -528,7 +492,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +537,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -594,21 +558,18 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -617,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -626,62 +587,56 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J4">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -696,179 +651,176 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>308</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>303</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J9">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -876,161 +828,33 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="J11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>303</v>
-      </c>
-      <c r="J12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>324</v>
-      </c>
-      <c r="J13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>301</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>301</v>
-      </c>
-      <c r="J15">
         <v>49</v>
       </c>
     </row>

--- a/Controller/Ticket_Details.xlsx
+++ b/Controller/Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>ticketID</t>
   </si>
@@ -50,109 +50,403 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:55:00</t>
+  </si>
+  <si>
+    <t>2023-12-26 11:38:00</t>
+  </si>
+  <si>
+    <t>QWRTYUH</t>
+  </si>
+  <si>
+    <t>asdrtfyuio</t>
+  </si>
+  <si>
+    <t>Done resolving</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:00</t>
-  </si>
-  <si>
-    <t>2023-12-10 17:16:33</t>
+    <t>2023-12-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:25:29</t>
   </si>
   <si>
     <t>Nothing</t>
   </si>
   <si>
-    <t>Online Banking</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:06:38</t>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:00</t>
+  </si>
+  <si>
+    <t>2023-12-18 14:26:29</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:57</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:52:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:52:37</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhgfdewqw34r567890</t>
+  </si>
+  <si>
+    <t>2023-12-24 14:48:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 12:33:00</t>
+  </si>
+  <si>
+    <t>asdfghjk</t>
+  </si>
+  <si>
+    <t>asdfguiop[poiuytrewq</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2023-12-26 14:47:00</t>
+  </si>
+  <si>
+    <t>2023-12-26 14:47:57</t>
+  </si>
+  <si>
+    <t>3G sim</t>
+  </si>
+  <si>
+    <t>Need to change the 3G sim to 4G sim</t>
+  </si>
+  <si>
+    <t>2023-12-26 15:06:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:50:00</t>
+  </si>
+  <si>
+    <t>4G sim</t>
+  </si>
+  <si>
+    <t>Change the sim from 4G to 5G</t>
+  </si>
+  <si>
+    <t>dfhggfds</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:25:42</t>
+  </si>
+  <si>
+    <t>Internet Package</t>
+  </si>
+  <si>
+    <t>Cannot prevent auto renewal of internet package</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:42:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:42:17</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:42:44</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:46:46</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:47:01</t>
+  </si>
+  <si>
+    <t>2023-12-27 13:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 13:25:10</t>
+  </si>
+  <si>
+    <t>Adding for testing purpose</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:16:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:16:32</t>
+  </si>
+  <si>
+    <t>Testing notifications</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:18:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:18:56</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhg</t>
+  </si>
+  <si>
+    <t>asdfghjkolkjhgf</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:32:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:33:08</t>
+  </si>
+  <si>
+    <t>Testing purpose</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:43:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:43:06</t>
+  </si>
+  <si>
+    <t>asdfghjkl;</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:47:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:47:57</t>
+  </si>
+  <si>
+    <t>QWRTYUHasdfghjgfd</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:58:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:58:35</t>
   </si>
   <si>
     <t>asdfghjkl</t>
   </si>
   <si>
-    <t>2023-12-17 16:36:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:36:29</t>
-  </si>
-  <si>
-    <t>QWRTYUH</t>
-  </si>
-  <si>
-    <t>asdfghjkl;</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:54:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:27:00</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:36</t>
-  </si>
-  <si>
-    <t>asdrtfyuio</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:25:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:25:29</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:26:00</t>
-  </si>
-  <si>
-    <t>2023-12-18 14:26:29</t>
-  </si>
-  <si>
-    <t>2023-12-19 11:45:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 11:45:22</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:48:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:48:57</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:52:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:52:37</t>
-  </si>
-  <si>
-    <t>asdfghjklkjhgfdewqw34r567890</t>
+    <t>2023-12-27 15:59:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:59:32</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:17:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:18:02</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhgfd</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:56:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:56:43</t>
+  </si>
+  <si>
+    <t>asdfghjkl;lkjhgfds</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:58:46</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:10:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:10:50</t>
+  </si>
+  <si>
+    <t>asdfghhgfd</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:11:45</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:13:34</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:14:39</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:15:39</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:15:51</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:17:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:17:53</t>
+  </si>
+  <si>
+    <t>asdfgds</t>
+  </si>
+  <si>
+    <t>asdfghjhgfd</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:18:35</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:19:17</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:14</t>
+  </si>
+  <si>
+    <t>Account locked</t>
+  </si>
+  <si>
+    <t>asdfghjhgfds</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:31</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:33</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:34</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:35</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:36</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:22:37</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:24:22</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:47:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:47:22</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:50:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 17:50:13</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhgf</t>
+  </si>
+  <si>
+    <t>2023-12-28 10:17:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 10:17:34</t>
+  </si>
+  <si>
+    <t>asdfghjkj</t>
+  </si>
+  <si>
+    <t>2023-12-28 10:20:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 10:20:39</t>
+  </si>
+  <si>
+    <t>asdfghj</t>
+  </si>
+  <si>
+    <t>ssdfghjklasdfghjk</t>
+  </si>
+  <si>
+    <t>2023-12-28 10:22:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 10:22:24</t>
+  </si>
+  <si>
+    <t>sdfghjkl</t>
+  </si>
+  <si>
+    <t>2023-12-28 12:56:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 12:56:09</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>2023-12-28 14:22:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 14:22:27</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:51:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:51:29</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:58:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:59:03</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:59:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 16:59:42</t>
+  </si>
+  <si>
+    <t>2023-12-28 17:03:00</t>
+  </si>
+  <si>
+    <t>2023-12-28 17:03:14</t>
+  </si>
+  <si>
+    <t>asdfghjklkkk</t>
+  </si>
+  <si>
+    <t>2023-12-31 13:13:00</t>
+  </si>
+  <si>
+    <t>2023-12-31 13:13:07</t>
+  </si>
+  <si>
+    <t>srhjkl</t>
   </si>
 </sst>
 </file>
@@ -492,7 +786,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +831,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -558,263 +852,269 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J5">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="J8">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
       <c r="I9">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J9">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -823,30 +1123,30 @@
         <v>301</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -855,7 +1155,1543 @@
         <v>301</v>
       </c>
       <c r="J11">
-        <v>49</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>301</v>
+      </c>
+      <c r="J12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>301</v>
+      </c>
+      <c r="J13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>301</v>
+      </c>
+      <c r="J14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>301</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>301</v>
+      </c>
+      <c r="J16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>301</v>
+      </c>
+      <c r="J17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>301</v>
+      </c>
+      <c r="J18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>301</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>301</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>301</v>
+      </c>
+      <c r="J21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>301</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>301</v>
+      </c>
+      <c r="J23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>330</v>
+      </c>
+      <c r="J24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>330</v>
+      </c>
+      <c r="J25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>330</v>
+      </c>
+      <c r="J26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>330</v>
+      </c>
+      <c r="J27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>330</v>
+      </c>
+      <c r="J28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>330</v>
+      </c>
+      <c r="J29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>330</v>
+      </c>
+      <c r="J30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>330</v>
+      </c>
+      <c r="J31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>330</v>
+      </c>
+      <c r="J32">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>330</v>
+      </c>
+      <c r="J33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>330</v>
+      </c>
+      <c r="J34">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>324</v>
+      </c>
+      <c r="J35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>324</v>
+      </c>
+      <c r="J36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>324</v>
+      </c>
+      <c r="J37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>324</v>
+      </c>
+      <c r="J38">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>324</v>
+      </c>
+      <c r="J39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>324</v>
+      </c>
+      <c r="J40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>324</v>
+      </c>
+      <c r="J41">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>324</v>
+      </c>
+      <c r="J42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>324</v>
+      </c>
+      <c r="J43">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>324</v>
+      </c>
+      <c r="J44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>324</v>
+      </c>
+      <c r="J45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>324</v>
+      </c>
+      <c r="J46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>324</v>
+      </c>
+      <c r="J47">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>305</v>
+      </c>
+      <c r="J48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>305</v>
+      </c>
+      <c r="J49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>305</v>
+      </c>
+      <c r="J50">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>305</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>305</v>
+      </c>
+      <c r="J52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>305</v>
+      </c>
+      <c r="J53">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>308</v>
+      </c>
+      <c r="J54">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>324</v>
+      </c>
+      <c r="J55">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>331</v>
+      </c>
+      <c r="J56">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>329</v>
+      </c>
+      <c r="J57">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>306</v>
+      </c>
+      <c r="J58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>301</v>
+      </c>
+      <c r="J59">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Controller/Ticket_Details.xlsx
+++ b/Controller/Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>ticketID</t>
   </si>
@@ -50,12 +50,30 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>2023-12-10 17:16:00</t>
+  </si>
+  <si>
+    <t>2024-01-01 14:51:00</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Online Banking</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
     <t>Close</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>2023-12-17 16:55:00</t>
   </si>
   <si>
@@ -71,18 +89,12 @@
     <t>Done resolving</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>2023-12-18 14:25:00</t>
   </si>
   <si>
     <t>2023-12-18 14:25:29</t>
   </si>
   <si>
-    <t>Nothing</t>
-  </si>
-  <si>
     <t>Lorem Ipsum</t>
   </si>
   <si>
@@ -98,7 +110,10 @@
     <t>2023-12-19 15:48:00</t>
   </si>
   <si>
-    <t>2023-12-19 15:48:57</t>
+    <t>2024-01-12 01:06:00</t>
+  </si>
+  <si>
+    <t>Done Resolving</t>
   </si>
   <si>
     <t>medium</t>
@@ -447,6 +462,12 @@
   </si>
   <si>
     <t>srhjkl</t>
+  </si>
+  <si>
+    <t>2024-01-24 15:45:00</t>
+  </si>
+  <si>
+    <t>2024-01-24 15:45:31</t>
   </si>
 </sst>
 </file>
@@ -786,7 +807,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,7 +852,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -852,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -866,7 +887,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -887,100 +908,103 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J4">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
       <c r="H5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -989,53 +1013,53 @@
         <v>301</v>
       </c>
       <c r="J6">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -1053,36 +1077,39 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="J8">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>330</v>
@@ -1090,16 +1117,13 @@
       <c r="J9">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1117,36 +1141,39 @@
         <v>49</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="J10">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1155,30 +1182,30 @@
         <v>301</v>
       </c>
       <c r="J11">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1192,25 +1219,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1224,25 +1251,25 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1256,25 +1283,25 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1283,126 +1310,126 @@
         <v>301</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>301</v>
       </c>
       <c r="J16">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>301</v>
       </c>
       <c r="J17">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>301</v>
       </c>
       <c r="J18">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1411,30 +1438,30 @@
         <v>301</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1443,30 +1470,30 @@
         <v>301</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
         <v>76</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1475,30 +1502,30 @@
         <v>301</v>
       </c>
       <c r="J21">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1507,27 +1534,27 @@
         <v>301</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
         <v>82</v>
@@ -1539,62 +1566,62 @@
         <v>301</v>
       </c>
       <c r="J23">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J24">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1608,25 +1635,25 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1635,30 +1662,30 @@
         <v>330</v>
       </c>
       <c r="J26">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1672,25 +1699,25 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1704,25 +1731,25 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1736,25 +1763,25 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1768,25 +1795,25 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>89</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1800,25 +1827,25 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1827,30 +1854,30 @@
         <v>330</v>
       </c>
       <c r="J32">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1864,25 +1891,25 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1896,57 +1923,57 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
         <v>102</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>103</v>
       </c>
-      <c r="G35" t="s">
-        <v>104</v>
-      </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J35">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -1960,25 +1987,25 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -1992,25 +2019,25 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2024,25 +2051,25 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
         <v>108</v>
       </c>
-      <c r="F39" t="s">
-        <v>103</v>
-      </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -2056,25 +2083,25 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
         <v>109</v>
-      </c>
-      <c r="F40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" t="s">
-        <v>104</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -2088,25 +2115,25 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" t="s">
-        <v>104</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -2120,25 +2147,25 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
         <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" t="s">
-        <v>104</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -2152,25 +2179,25 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -2184,25 +2211,25 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -2216,25 +2243,25 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2248,25 +2275,25 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2280,25 +2307,25 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2312,57 +2339,57 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="J48">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -2371,30 +2398,30 @@
         <v>305</v>
       </c>
       <c r="J49">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2403,30 +2430,30 @@
         <v>305</v>
       </c>
       <c r="J50">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -2435,30 +2462,30 @@
         <v>305</v>
       </c>
       <c r="J51">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -2472,25 +2499,25 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
         <v>127</v>
       </c>
-      <c r="E53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
       <c r="G53" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2499,199 +2526,263 @@
         <v>305</v>
       </c>
       <c r="J53">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J54">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H55">
         <v>7</v>
       </c>
       <c r="I55">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="J55">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I56">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J56">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H57">
         <v>4</v>
       </c>
       <c r="I57">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J57">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="J58">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>306</v>
+      </c>
+      <c r="J59">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
         <v>164</v>
       </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
         <v>301</v>
       </c>
-      <c r="J59">
+      <c r="J60">
         <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>301</v>
+      </c>
+      <c r="J61">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
